--- a/Report/Recipe.xlsx
+++ b/Report/Recipe.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$9:$AF$289</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -491,6 +491,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,15 +558,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:DA289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="CR39" sqref="CR39"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U134" sqref="U134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,317 +894,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
     </row>
     <row r="3" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
     </row>
     <row r="4" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
     </row>
     <row r="5" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="BY5" s="22" t="s">
+      <c r="BY5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="22"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
-      <c r="CH5" s="22"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="22"/>
-      <c r="CK5" s="22"/>
-      <c r="CL5" s="22"/>
-      <c r="CM5" s="22"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
-      <c r="CS5" s="22"/>
-      <c r="CT5" s="22"/>
-      <c r="CU5" s="22"/>
-      <c r="CV5" s="22"/>
-      <c r="CW5" s="22"/>
-      <c r="CX5" s="22"/>
-      <c r="CY5" s="22"/>
-      <c r="CZ5" s="22"/>
-      <c r="DA5" s="22"/>
+      <c r="BZ5" s="25"/>
+      <c r="CA5" s="25"/>
+      <c r="CB5" s="25"/>
+      <c r="CC5" s="25"/>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25"/>
+      <c r="CF5" s="25"/>
+      <c r="CG5" s="25"/>
+      <c r="CH5" s="25"/>
+      <c r="CI5" s="25"/>
+      <c r="CJ5" s="25"/>
+      <c r="CK5" s="25"/>
+      <c r="CL5" s="25"/>
+      <c r="CM5" s="25"/>
+      <c r="CN5" s="25"/>
+      <c r="CO5" s="25"/>
+      <c r="CP5" s="25"/>
+      <c r="CQ5" s="25"/>
+      <c r="CR5" s="25"/>
+      <c r="CS5" s="25"/>
+      <c r="CT5" s="25"/>
+      <c r="CU5" s="25"/>
+      <c r="CV5" s="25"/>
+      <c r="CW5" s="25"/>
+      <c r="CX5" s="25"/>
+      <c r="CY5" s="25"/>
+      <c r="CZ5" s="25"/>
+      <c r="DA5" s="25"/>
     </row>
     <row r="6" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="25"/>
-      <c r="BQ6" s="21" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="BQ6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BY6" s="22"/>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="22"/>
-      <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="22"/>
-      <c r="CE6" s="22"/>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
-      <c r="CI6" s="22"/>
-      <c r="CJ6" s="22"/>
-      <c r="CK6" s="22"/>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="22"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
-      <c r="CS6" s="22"/>
-      <c r="CT6" s="22"/>
-      <c r="CU6" s="22"/>
-      <c r="CV6" s="22"/>
-      <c r="CW6" s="22"/>
-      <c r="CX6" s="22"/>
-      <c r="CY6" s="22"/>
-      <c r="CZ6" s="22"/>
-      <c r="DA6" s="22"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BY6" s="25"/>
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="25"/>
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="25"/>
+      <c r="CF6" s="25"/>
+      <c r="CG6" s="25"/>
+      <c r="CH6" s="25"/>
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="25"/>
+      <c r="CK6" s="25"/>
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="25"/>
+      <c r="CN6" s="25"/>
+      <c r="CO6" s="25"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="25"/>
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="25"/>
+      <c r="CT6" s="25"/>
+      <c r="CU6" s="25"/>
+      <c r="CV6" s="25"/>
+      <c r="CW6" s="25"/>
+      <c r="CX6" s="25"/>
+      <c r="CY6" s="25"/>
+      <c r="CZ6" s="25"/>
+      <c r="DA6" s="25"/>
     </row>
     <row r="7" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="28"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
-      <c r="BW7" s="21"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
-      <c r="CS7" s="22"/>
-      <c r="CT7" s="22"/>
-      <c r="CU7" s="22"/>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="22"/>
-      <c r="CY7" s="22"/>
-      <c r="CZ7" s="22"/>
-      <c r="DA7" s="22"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="31"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="24"/>
+      <c r="BW7" s="24"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25"/>
+      <c r="CG7" s="25"/>
+      <c r="CH7" s="25"/>
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CU7" s="25"/>
+      <c r="CV7" s="25"/>
+      <c r="CW7" s="25"/>
+      <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
+      <c r="CZ7" s="25"/>
+      <c r="DA7" s="25"/>
     </row>
     <row r="8" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="31"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34"/>
     </row>
     <row r="9" spans="2:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="10" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="11" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="15" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="12" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="15" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="13" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="15" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
     </row>
     <row r="14" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="15" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="15" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="15" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="16" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="17" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="15" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +3696,7 @@
       </c>
     </row>
     <row r="18" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="15" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="19" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="15" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="20" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="14" t="s">
         <v>1</v>
       </c>
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="21" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="14" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="22" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="14" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="BT22" s="6">
         <f>AH139/10</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="BY22" s="18" t="s">
         <v>12</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="CL22" s="11">
         <f t="shared" si="44"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="CM22" s="6">
         <f t="shared" si="44"/>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="CP22" s="6">
         <f t="shared" si="44"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="CQ22" s="6">
         <f t="shared" si="44"/>
@@ -5093,7 +5093,7 @@
       </c>
     </row>
     <row r="23" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="14" t="s">
         <v>1</v>
       </c>
@@ -5371,7 +5371,7 @@
       </c>
     </row>
     <row r="24" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="14" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5649,7 @@
       </c>
     </row>
     <row r="25" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="14" t="s">
         <v>1</v>
       </c>
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="26" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="14" t="s">
         <v>1</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="27" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="14" t="s">
         <v>1</v>
       </c>
@@ -6483,7 +6483,7 @@
       </c>
     </row>
     <row r="28" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="14" t="s">
         <v>1</v>
       </c>
@@ -6761,7 +6761,7 @@
       </c>
     </row>
     <row r="29" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="14" t="s">
         <v>1</v>
       </c>
@@ -7043,7 +7043,7 @@
       </c>
     </row>
     <row r="30" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="15" t="s">
         <v>2</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
     </row>
     <row r="31" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
     </row>
     <row r="32" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -7880,7 +7880,7 @@
       </c>
     </row>
     <row r="33" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="15" t="s">
         <v>2</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="34" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="35" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -8714,7 +8714,7 @@
       </c>
     </row>
     <row r="36" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="15" t="s">
         <v>2</v>
       </c>
@@ -8992,7 +8992,7 @@
       </c>
     </row>
     <row r="37" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="15" t="s">
         <v>2</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="38" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -9424,16 +9424,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="BS38" s="41" t="s">
+      <c r="BS38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="BT38" s="43">
+      <c r="BT38" s="23">
         <f>SUM(BT10:BT37)/28</f>
-        <v>0.97499999999999998</v>
+        <v>0.9821428571428571</v>
       </c>
     </row>
     <row r="39" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -9591,10 +9591,10 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="BT39" s="42"/>
+      <c r="BT39" s="22"/>
     </row>
     <row r="40" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="13" t="s">
         <v>3</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
     </row>
     <row r="41" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="13" t="s">
         <v>3</v>
       </c>
@@ -9909,7 +9909,7 @@
       </c>
     </row>
     <row r="42" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="13" t="s">
         <v>3</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
     </row>
     <row r="43" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="13" t="s">
         <v>3</v>
       </c>
@@ -10221,7 +10221,7 @@
       </c>
     </row>
     <row r="44" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="13" t="s">
         <v>3</v>
       </c>
@@ -10377,7 +10377,7 @@
       </c>
     </row>
     <row r="45" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="13" t="s">
         <v>3</v>
       </c>
@@ -10533,7 +10533,7 @@
       </c>
     </row>
     <row r="46" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="13" t="s">
         <v>3</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
     </row>
     <row r="47" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="13" t="s">
         <v>3</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
     </row>
     <row r="48" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="13" t="s">
         <v>3</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="13" t="s">
         <v>3</v>
       </c>
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="50" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="15" t="s">
         <v>4</v>
       </c>
@@ -11320,7 +11320,7 @@
       </c>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="15" t="s">
         <v>4</v>
       </c>
@@ -11476,7 +11476,7 @@
       </c>
     </row>
     <row r="52" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="15" t="s">
         <v>4</v>
       </c>
@@ -11632,7 +11632,7 @@
       </c>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="15" t="s">
         <v>4</v>
       </c>
@@ -11788,7 +11788,7 @@
       </c>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="15" t="s">
         <v>4</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
     </row>
     <row r="56" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="15" t="s">
         <v>4</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="33"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="15" t="s">
         <v>4</v>
       </c>
@@ -12412,7 +12412,7 @@
       </c>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="15" t="s">
         <v>4</v>
       </c>
@@ -12568,7 +12568,7 @@
       </c>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="15" t="s">
         <v>4</v>
       </c>
@@ -12728,7 +12728,7 @@
       </c>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="13" t="s">
         <v>5</v>
       </c>
@@ -12887,7 +12887,7 @@
       </c>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
@@ -13043,7 +13043,7 @@
       </c>
     </row>
     <row r="62" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="13" t="s">
         <v>5</v>
       </c>
@@ -13199,7 +13199,7 @@
       </c>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="13" t="s">
         <v>5</v>
       </c>
@@ -13355,7 +13355,7 @@
       </c>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="13" t="s">
         <v>5</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="13" t="s">
         <v>5</v>
       </c>
@@ -13667,7 +13667,7 @@
       </c>
     </row>
     <row r="66" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="13" t="s">
         <v>5</v>
       </c>
@@ -13823,7 +13823,7 @@
       </c>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="13" t="s">
         <v>5</v>
       </c>
@@ -13979,7 +13979,7 @@
       </c>
     </row>
     <row r="68" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="13" t="s">
         <v>5</v>
       </c>
@@ -14135,7 +14135,7 @@
       </c>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="13" t="s">
         <v>5</v>
       </c>
@@ -14295,7 +14295,7 @@
       </c>
     </row>
     <row r="70" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="15" t="s">
         <v>6</v>
       </c>
@@ -14454,7 +14454,7 @@
       </c>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="15" t="s">
         <v>6</v>
       </c>
@@ -14610,7 +14610,7 @@
       </c>
     </row>
     <row r="72" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="15" t="s">
         <v>6</v>
       </c>
@@ -14766,7 +14766,7 @@
       </c>
     </row>
     <row r="73" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="15" t="s">
         <v>6</v>
       </c>
@@ -14922,7 +14922,7 @@
       </c>
     </row>
     <row r="74" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="15" t="s">
         <v>6</v>
       </c>
@@ -15078,7 +15078,7 @@
       </c>
     </row>
     <row r="75" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="15" t="s">
         <v>6</v>
       </c>
@@ -15234,7 +15234,7 @@
       </c>
     </row>
     <row r="76" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="15" t="s">
         <v>6</v>
       </c>
@@ -15390,7 +15390,7 @@
       </c>
     </row>
     <row r="77" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="15" t="s">
         <v>6</v>
       </c>
@@ -15546,7 +15546,7 @@
       </c>
     </row>
     <row r="78" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="15" t="s">
         <v>6</v>
       </c>
@@ -15702,7 +15702,7 @@
       </c>
     </row>
     <row r="79" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="15" t="s">
         <v>6</v>
       </c>
@@ -15862,7 +15862,7 @@
       </c>
     </row>
     <row r="80" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B80" s="33"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="13" t="s">
         <v>7</v>
       </c>
@@ -16021,7 +16021,7 @@
       </c>
     </row>
     <row r="81" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="13" t="s">
         <v>7</v>
       </c>
@@ -16177,7 +16177,7 @@
       </c>
     </row>
     <row r="82" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="13" t="s">
         <v>7</v>
       </c>
@@ -16333,7 +16333,7 @@
       </c>
     </row>
     <row r="83" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B83" s="33"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="13" t="s">
         <v>7</v>
       </c>
@@ -16489,7 +16489,7 @@
       </c>
     </row>
     <row r="84" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B84" s="33"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="13" t="s">
         <v>7</v>
       </c>
@@ -16645,7 +16645,7 @@
       </c>
     </row>
     <row r="85" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B85" s="33"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="13" t="s">
         <v>7</v>
       </c>
@@ -16801,7 +16801,7 @@
       </c>
     </row>
     <row r="86" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B86" s="33"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="13" t="s">
         <v>7</v>
       </c>
@@ -16957,7 +16957,7 @@
       </c>
     </row>
     <row r="87" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B87" s="33"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="13" t="s">
         <v>7</v>
       </c>
@@ -17113,7 +17113,7 @@
       </c>
     </row>
     <row r="88" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B88" s="33"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="13" t="s">
         <v>7</v>
       </c>
@@ -17269,7 +17269,7 @@
       </c>
     </row>
     <row r="89" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B89" s="33"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="13" t="s">
         <v>7</v>
       </c>
@@ -17429,7 +17429,7 @@
       </c>
     </row>
     <row r="90" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B90" s="33"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="15" t="s">
         <v>8</v>
       </c>
@@ -17588,7 +17588,7 @@
       </c>
     </row>
     <row r="91" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="15" t="s">
         <v>8</v>
       </c>
@@ -17744,7 +17744,7 @@
       </c>
     </row>
     <row r="92" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B92" s="33"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="15" t="s">
         <v>8</v>
       </c>
@@ -17900,7 +17900,7 @@
       </c>
     </row>
     <row r="93" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="15" t="s">
         <v>8</v>
       </c>
@@ -18056,7 +18056,7 @@
       </c>
     </row>
     <row r="94" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B94" s="33"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="15" t="s">
         <v>8</v>
       </c>
@@ -18212,7 +18212,7 @@
       </c>
     </row>
     <row r="95" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B95" s="33"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="15" t="s">
         <v>8</v>
       </c>
@@ -18368,7 +18368,7 @@
       </c>
     </row>
     <row r="96" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B96" s="33"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="15" t="s">
         <v>8</v>
       </c>
@@ -18524,7 +18524,7 @@
       </c>
     </row>
     <row r="97" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B97" s="33"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="15" t="s">
         <v>8</v>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
     </row>
     <row r="98" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="15" t="s">
         <v>8</v>
       </c>
@@ -18836,7 +18836,7 @@
       </c>
     </row>
     <row r="99" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B99" s="33"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="15" t="s">
         <v>8</v>
       </c>
@@ -18996,7 +18996,7 @@
       </c>
     </row>
     <row r="100" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B100" s="33"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="13" t="s">
         <v>9</v>
       </c>
@@ -19155,7 +19155,7 @@
       </c>
     </row>
     <row r="101" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B101" s="33"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="13" t="s">
         <v>9</v>
       </c>
@@ -19311,7 +19311,7 @@
       </c>
     </row>
     <row r="102" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B102" s="33"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="13" t="s">
         <v>9</v>
       </c>
@@ -19467,7 +19467,7 @@
       </c>
     </row>
     <row r="103" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B103" s="33"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="13" t="s">
         <v>9</v>
       </c>
@@ -19623,7 +19623,7 @@
       </c>
     </row>
     <row r="104" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B104" s="33"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="13" t="s">
         <v>9</v>
       </c>
@@ -19779,7 +19779,7 @@
       </c>
     </row>
     <row r="105" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="13" t="s">
         <v>9</v>
       </c>
@@ -19935,7 +19935,7 @@
       </c>
     </row>
     <row r="106" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B106" s="33"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="13" t="s">
         <v>9</v>
       </c>
@@ -20091,7 +20091,7 @@
       </c>
     </row>
     <row r="107" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B107" s="33"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="13" t="s">
         <v>9</v>
       </c>
@@ -20247,7 +20247,7 @@
       </c>
     </row>
     <row r="108" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B108" s="33"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="13" t="s">
         <v>9</v>
       </c>
@@ -20403,7 +20403,7 @@
       </c>
     </row>
     <row r="109" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B109" s="33"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="13" t="s">
         <v>9</v>
       </c>
@@ -20563,7 +20563,7 @@
       </c>
     </row>
     <row r="110" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B110" s="33"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="15" t="s">
         <v>10</v>
       </c>
@@ -20722,7 +20722,7 @@
       </c>
     </row>
     <row r="111" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B111" s="33"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="15" t="s">
         <v>10</v>
       </c>
@@ -20878,7 +20878,7 @@
       </c>
     </row>
     <row r="112" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="15" t="s">
         <v>10</v>
       </c>
@@ -21034,7 +21034,7 @@
       </c>
     </row>
     <row r="113" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B113" s="33"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="15" t="s">
         <v>10</v>
       </c>
@@ -21190,7 +21190,7 @@
       </c>
     </row>
     <row r="114" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B114" s="33"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="15" t="s">
         <v>10</v>
       </c>
@@ -21346,7 +21346,7 @@
       </c>
     </row>
     <row r="115" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B115" s="33"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="15" t="s">
         <v>10</v>
       </c>
@@ -21502,7 +21502,7 @@
       </c>
     </row>
     <row r="116" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B116" s="33"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="15" t="s">
         <v>10</v>
       </c>
@@ -21658,7 +21658,7 @@
       </c>
     </row>
     <row r="117" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B117" s="33"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="15" t="s">
         <v>10</v>
       </c>
@@ -21814,7 +21814,7 @@
       </c>
     </row>
     <row r="118" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B118" s="33"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="15" t="s">
         <v>10</v>
       </c>
@@ -21970,7 +21970,7 @@
       </c>
     </row>
     <row r="119" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="15" t="s">
         <v>10</v>
       </c>
@@ -22130,7 +22130,7 @@
       </c>
     </row>
     <row r="120" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B120" s="33"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="13" t="s">
         <v>11</v>
       </c>
@@ -22289,7 +22289,7 @@
       </c>
     </row>
     <row r="121" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B121" s="33"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="13" t="s">
         <v>11</v>
       </c>
@@ -22445,7 +22445,7 @@
       </c>
     </row>
     <row r="122" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B122" s="33"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="13" t="s">
         <v>11</v>
       </c>
@@ -22601,7 +22601,7 @@
       </c>
     </row>
     <row r="123" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B123" s="33"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="13" t="s">
         <v>11</v>
       </c>
@@ -22757,7 +22757,7 @@
       </c>
     </row>
     <row r="124" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B124" s="33"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="13" t="s">
         <v>11</v>
       </c>
@@ -22913,7 +22913,7 @@
       </c>
     </row>
     <row r="125" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B125" s="33"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="13" t="s">
         <v>11</v>
       </c>
@@ -23069,7 +23069,7 @@
       </c>
     </row>
     <row r="126" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="13" t="s">
         <v>11</v>
       </c>
@@ -23225,7 +23225,7 @@
       </c>
     </row>
     <row r="127" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B127" s="33"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="13" t="s">
         <v>11</v>
       </c>
@@ -23381,7 +23381,7 @@
       </c>
     </row>
     <row r="128" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B128" s="33"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="13" t="s">
         <v>11</v>
       </c>
@@ -23537,7 +23537,7 @@
       </c>
     </row>
     <row r="129" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B129" s="33"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="13" t="s">
         <v>11</v>
       </c>
@@ -23697,7 +23697,7 @@
       </c>
     </row>
     <row r="130" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B130" s="33"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="15" t="s">
         <v>12</v>
       </c>
@@ -23713,13 +23713,13 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
+      <c r="P130" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-      <c r="T130" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
@@ -23733,11 +23733,11 @@
       <c r="AE130" s="4"/>
       <c r="AF130" s="16" t="str">
         <f>IF(P130=0,"FAIL","TRUE")</f>
-        <v>FAIL</v>
+        <v>TRUE</v>
       </c>
       <c r="AG130" s="2">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ130" s="2">
         <f t="shared" si="66"/>
@@ -23789,7 +23789,7 @@
       </c>
       <c r="AV130" s="2">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW130" s="2">
         <f t="shared" si="79"/>
@@ -23805,7 +23805,7 @@
       </c>
       <c r="AZ130" s="2">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA130" s="2">
         <f t="shared" si="83"/>
@@ -23856,7 +23856,7 @@
       </c>
     </row>
     <row r="131" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B131" s="33"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="15" t="s">
         <v>12</v>
       </c>
@@ -23872,13 +23872,13 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
+      <c r="P131" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
-      <c r="T131" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
@@ -23892,11 +23892,11 @@
       <c r="AE131" s="4"/>
       <c r="AF131" s="16" t="str">
         <f t="shared" ref="AF131:AF139" si="99">IF(P131=0,"FAIL","TRUE")</f>
-        <v>FAIL</v>
+        <v>TRUE</v>
       </c>
       <c r="AG131" s="2">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ131" s="2">
         <f t="shared" si="66"/>
@@ -23948,7 +23948,7 @@
       </c>
       <c r="AV131" s="2">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW131" s="2">
         <f t="shared" si="79"/>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="AZ131" s="2">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA131" s="2">
         <f t="shared" si="83"/>
@@ -24012,7 +24012,7 @@
       </c>
     </row>
     <row r="132" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B132" s="33"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="15" t="s">
         <v>12</v>
       </c>
@@ -24168,7 +24168,7 @@
       </c>
     </row>
     <row r="133" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="15" t="s">
         <v>12</v>
       </c>
@@ -24324,7 +24324,7 @@
       </c>
     </row>
     <row r="134" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B134" s="33"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="15" t="s">
         <v>12</v>
       </c>
@@ -24480,7 +24480,7 @@
       </c>
     </row>
     <row r="135" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B135" s="33"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="15" t="s">
         <v>12</v>
       </c>
@@ -24636,7 +24636,7 @@
       </c>
     </row>
     <row r="136" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B136" s="33"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="15" t="s">
         <v>12</v>
       </c>
@@ -24792,7 +24792,7 @@
       </c>
     </row>
     <row r="137" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B137" s="33"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="15" t="s">
         <v>12</v>
       </c>
@@ -24948,7 +24948,7 @@
       </c>
     </row>
     <row r="138" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B138" s="33"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="15" t="s">
         <v>12</v>
       </c>
@@ -25104,7 +25104,7 @@
       </c>
     </row>
     <row r="139" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B139" s="33"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="15" t="s">
         <v>12</v>
       </c>
@@ -25148,7 +25148,7 @@
       </c>
       <c r="AH139" s="2">
         <f>SUM(AG130:AG139)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ139" s="2">
         <f t="shared" ref="AJ139:AJ202" si="101">VALUE(IF(D139=0,"0","1"))</f>
@@ -25264,7 +25264,7 @@
       </c>
     </row>
     <row r="140" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="13" t="s">
         <v>13</v>
       </c>
@@ -25423,7 +25423,7 @@
       </c>
     </row>
     <row r="141" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B141" s="33"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="13" t="s">
         <v>13</v>
       </c>
@@ -25579,7 +25579,7 @@
       </c>
     </row>
     <row r="142" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B142" s="33"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="13" t="s">
         <v>13</v>
       </c>
@@ -25735,7 +25735,7 @@
       </c>
     </row>
     <row r="143" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B143" s="33"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="13" t="s">
         <v>13</v>
       </c>
@@ -25891,7 +25891,7 @@
       </c>
     </row>
     <row r="144" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B144" s="33"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="13" t="s">
         <v>13</v>
       </c>
@@ -26047,7 +26047,7 @@
       </c>
     </row>
     <row r="145" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B145" s="33"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="13" t="s">
         <v>13</v>
       </c>
@@ -26203,7 +26203,7 @@
       </c>
     </row>
     <row r="146" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B146" s="33"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="13" t="s">
         <v>13</v>
       </c>
@@ -26359,7 +26359,7 @@
       </c>
     </row>
     <row r="147" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="13" t="s">
         <v>13</v>
       </c>
@@ -26515,7 +26515,7 @@
       </c>
     </row>
     <row r="148" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B148" s="33"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="13" t="s">
         <v>13</v>
       </c>
@@ -26671,7 +26671,7 @@
       </c>
     </row>
     <row r="149" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B149" s="33"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="13" t="s">
         <v>13</v>
       </c>
@@ -26831,7 +26831,7 @@
       </c>
     </row>
     <row r="150" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B150" s="33"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="15" t="s">
         <v>14</v>
       </c>
@@ -26990,7 +26990,7 @@
       </c>
     </row>
     <row r="151" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B151" s="33"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="15" t="s">
         <v>14</v>
       </c>
@@ -27146,7 +27146,7 @@
       </c>
     </row>
     <row r="152" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B152" s="33"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="15" t="s">
         <v>14</v>
       </c>
@@ -27302,7 +27302,7 @@
       </c>
     </row>
     <row r="153" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B153" s="33"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="15" t="s">
         <v>14</v>
       </c>
@@ -27458,7 +27458,7 @@
       </c>
     </row>
     <row r="154" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="15" t="s">
         <v>14</v>
       </c>
@@ -27614,7 +27614,7 @@
       </c>
     </row>
     <row r="155" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B155" s="33"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="15" t="s">
         <v>14</v>
       </c>
@@ -27770,7 +27770,7 @@
       </c>
     </row>
     <row r="156" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B156" s="33"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="15" t="s">
         <v>14</v>
       </c>
@@ -27926,7 +27926,7 @@
       </c>
     </row>
     <row r="157" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B157" s="33"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="15" t="s">
         <v>14</v>
       </c>
@@ -28082,7 +28082,7 @@
       </c>
     </row>
     <row r="158" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B158" s="33"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="15" t="s">
         <v>14</v>
       </c>
@@ -28238,7 +28238,7 @@
       </c>
     </row>
     <row r="159" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B159" s="33"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="15" t="s">
         <v>14</v>
       </c>
@@ -28398,7 +28398,7 @@
       </c>
     </row>
     <row r="160" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B160" s="33"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="13" t="s">
         <v>15</v>
       </c>
@@ -28557,7 +28557,7 @@
       </c>
     </row>
     <row r="161" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="13" t="s">
         <v>15</v>
       </c>
@@ -28713,7 +28713,7 @@
       </c>
     </row>
     <row r="162" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B162" s="33"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="13" t="s">
         <v>15</v>
       </c>
@@ -28869,7 +28869,7 @@
       </c>
     </row>
     <row r="163" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B163" s="33"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="13" t="s">
         <v>15</v>
       </c>
@@ -29025,7 +29025,7 @@
       </c>
     </row>
     <row r="164" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B164" s="33"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="13" t="s">
         <v>15</v>
       </c>
@@ -29181,7 +29181,7 @@
       </c>
     </row>
     <row r="165" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B165" s="33"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="13" t="s">
         <v>15</v>
       </c>
@@ -29337,7 +29337,7 @@
       </c>
     </row>
     <row r="166" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B166" s="33"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="13" t="s">
         <v>15</v>
       </c>
@@ -29493,7 +29493,7 @@
       </c>
     </row>
     <row r="167" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B167" s="33"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="13" t="s">
         <v>15</v>
       </c>
@@ -29649,7 +29649,7 @@
       </c>
     </row>
     <row r="168" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="13" t="s">
         <v>15</v>
       </c>
@@ -29805,7 +29805,7 @@
       </c>
     </row>
     <row r="169" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B169" s="33"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="13" t="s">
         <v>15</v>
       </c>
@@ -29965,7 +29965,7 @@
       </c>
     </row>
     <row r="170" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B170" s="33"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="15" t="s">
         <v>16</v>
       </c>
@@ -30124,7 +30124,7 @@
       </c>
     </row>
     <row r="171" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B171" s="33"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="15" t="s">
         <v>16</v>
       </c>
@@ -30280,7 +30280,7 @@
       </c>
     </row>
     <row r="172" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B172" s="33"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="15" t="s">
         <v>16</v>
       </c>
@@ -30436,7 +30436,7 @@
       </c>
     </row>
     <row r="173" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B173" s="33"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="15" t="s">
         <v>16</v>
       </c>
@@ -30592,7 +30592,7 @@
       </c>
     </row>
     <row r="174" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="15" t="s">
         <v>16</v>
       </c>
@@ -30748,7 +30748,7 @@
       </c>
     </row>
     <row r="175" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B175" s="33"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="15" t="s">
         <v>16</v>
       </c>
@@ -30904,7 +30904,7 @@
       </c>
     </row>
     <row r="176" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B176" s="33"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="15" t="s">
         <v>16</v>
       </c>
@@ -31060,7 +31060,7 @@
       </c>
     </row>
     <row r="177" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B177" s="33"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="15" t="s">
         <v>16</v>
       </c>
@@ -31216,7 +31216,7 @@
       </c>
     </row>
     <row r="178" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B178" s="33"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="15" t="s">
         <v>16</v>
       </c>
@@ -31372,7 +31372,7 @@
       </c>
     </row>
     <row r="179" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B179" s="33"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="15" t="s">
         <v>16</v>
       </c>
@@ -31532,7 +31532,7 @@
       </c>
     </row>
     <row r="180" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B180" s="33"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="13" t="s">
         <v>17</v>
       </c>
@@ -31691,7 +31691,7 @@
       </c>
     </row>
     <row r="181" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="13" t="s">
         <v>17</v>
       </c>
@@ -31847,7 +31847,7 @@
       </c>
     </row>
     <row r="182" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B182" s="33"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="13" t="s">
         <v>17</v>
       </c>
@@ -32003,7 +32003,7 @@
       </c>
     </row>
     <row r="183" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B183" s="33"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="13" t="s">
         <v>17</v>
       </c>
@@ -32159,7 +32159,7 @@
       </c>
     </row>
     <row r="184" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B184" s="33"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="13" t="s">
         <v>17</v>
       </c>
@@ -32315,7 +32315,7 @@
       </c>
     </row>
     <row r="185" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B185" s="33"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="13" t="s">
         <v>17</v>
       </c>
@@ -32471,7 +32471,7 @@
       </c>
     </row>
     <row r="186" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B186" s="33"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="13" t="s">
         <v>17</v>
       </c>
@@ -32627,7 +32627,7 @@
       </c>
     </row>
     <row r="187" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B187" s="33"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="13" t="s">
         <v>17</v>
       </c>
@@ -32783,7 +32783,7 @@
       </c>
     </row>
     <row r="188" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="13" t="s">
         <v>17</v>
       </c>
@@ -32939,7 +32939,7 @@
       </c>
     </row>
     <row r="189" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B189" s="33"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="13" t="s">
         <v>17</v>
       </c>
@@ -33099,7 +33099,7 @@
       </c>
     </row>
     <row r="190" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B190" s="33"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="15" t="s">
         <v>18</v>
       </c>
@@ -33258,7 +33258,7 @@
       </c>
     </row>
     <row r="191" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B191" s="33"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="15" t="s">
         <v>18</v>
       </c>
@@ -33414,7 +33414,7 @@
       </c>
     </row>
     <row r="192" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B192" s="33"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="15" t="s">
         <v>18</v>
       </c>
@@ -33570,7 +33570,7 @@
       </c>
     </row>
     <row r="193" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B193" s="33"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="15" t="s">
         <v>18</v>
       </c>
@@ -33726,7 +33726,7 @@
       </c>
     </row>
     <row r="194" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B194" s="33"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="15" t="s">
         <v>18</v>
       </c>
@@ -33882,7 +33882,7 @@
       </c>
     </row>
     <row r="195" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B195" s="33"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="15" t="s">
         <v>18</v>
       </c>
@@ -34038,7 +34038,7 @@
       </c>
     </row>
     <row r="196" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B196" s="33"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="15" t="s">
         <v>18</v>
       </c>
@@ -34194,7 +34194,7 @@
       </c>
     </row>
     <row r="197" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="15" t="s">
         <v>18</v>
       </c>
@@ -34350,7 +34350,7 @@
       </c>
     </row>
     <row r="198" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B198" s="33"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="15" t="s">
         <v>18</v>
       </c>
@@ -34506,7 +34506,7 @@
       </c>
     </row>
     <row r="199" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B199" s="33"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="15" t="s">
         <v>18</v>
       </c>
@@ -34666,7 +34666,7 @@
       </c>
     </row>
     <row r="200" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B200" s="33"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="13" t="s">
         <v>19</v>
       </c>
@@ -34825,7 +34825,7 @@
       </c>
     </row>
     <row r="201" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B201" s="33"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="13" t="s">
         <v>19</v>
       </c>
@@ -34981,7 +34981,7 @@
       </c>
     </row>
     <row r="202" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B202" s="33"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="13" t="s">
         <v>19</v>
       </c>
@@ -35137,7 +35137,7 @@
       </c>
     </row>
     <row r="203" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B203" s="33"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="13" t="s">
         <v>19</v>
       </c>
@@ -35293,7 +35293,7 @@
       </c>
     </row>
     <row r="204" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="13" t="s">
         <v>19</v>
       </c>
@@ -35449,7 +35449,7 @@
       </c>
     </row>
     <row r="205" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B205" s="33"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="13" t="s">
         <v>19</v>
       </c>
@@ -35605,7 +35605,7 @@
       </c>
     </row>
     <row r="206" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B206" s="33"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="13" t="s">
         <v>19</v>
       </c>
@@ -35761,7 +35761,7 @@
       </c>
     </row>
     <row r="207" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B207" s="33"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="13" t="s">
         <v>19</v>
       </c>
@@ -35917,7 +35917,7 @@
       </c>
     </row>
     <row r="208" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B208" s="33"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="13" t="s">
         <v>19</v>
       </c>
@@ -36073,7 +36073,7 @@
       </c>
     </row>
     <row r="209" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B209" s="33"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="13" t="s">
         <v>19</v>
       </c>
@@ -36233,7 +36233,7 @@
       </c>
     </row>
     <row r="210" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B210" s="33"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="15" t="s">
         <v>20</v>
       </c>
@@ -36392,7 +36392,7 @@
       </c>
     </row>
     <row r="211" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="15" t="s">
         <v>20</v>
       </c>
@@ -36548,7 +36548,7 @@
       </c>
     </row>
     <row r="212" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B212" s="33"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="15" t="s">
         <v>20</v>
       </c>
@@ -36704,7 +36704,7 @@
       </c>
     </row>
     <row r="213" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B213" s="33"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="15" t="s">
         <v>20</v>
       </c>
@@ -36860,7 +36860,7 @@
       </c>
     </row>
     <row r="214" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B214" s="33"/>
+      <c r="B214" s="36"/>
       <c r="C214" s="15" t="s">
         <v>20</v>
       </c>
@@ -37016,7 +37016,7 @@
       </c>
     </row>
     <row r="215" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B215" s="33"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="15" t="s">
         <v>20</v>
       </c>
@@ -37172,7 +37172,7 @@
       </c>
     </row>
     <row r="216" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B216" s="33"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="15" t="s">
         <v>20</v>
       </c>
@@ -37328,7 +37328,7 @@
       </c>
     </row>
     <row r="217" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B217" s="33"/>
+      <c r="B217" s="36"/>
       <c r="C217" s="15" t="s">
         <v>20</v>
       </c>
@@ -37484,7 +37484,7 @@
       </c>
     </row>
     <row r="218" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="15" t="s">
         <v>20</v>
       </c>
@@ -37640,7 +37640,7 @@
       </c>
     </row>
     <row r="219" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B219" s="33"/>
+      <c r="B219" s="36"/>
       <c r="C219" s="15" t="s">
         <v>20</v>
       </c>
@@ -37800,7 +37800,7 @@
       </c>
     </row>
     <row r="220" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B220" s="33"/>
+      <c r="B220" s="36"/>
       <c r="C220" s="13" t="s">
         <v>21</v>
       </c>
@@ -37959,7 +37959,7 @@
       </c>
     </row>
     <row r="221" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B221" s="33"/>
+      <c r="B221" s="36"/>
       <c r="C221" s="13" t="s">
         <v>21</v>
       </c>
@@ -38115,7 +38115,7 @@
       </c>
     </row>
     <row r="222" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B222" s="33"/>
+      <c r="B222" s="36"/>
       <c r="C222" s="13" t="s">
         <v>21</v>
       </c>
@@ -38271,7 +38271,7 @@
       </c>
     </row>
     <row r="223" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B223" s="33"/>
+      <c r="B223" s="36"/>
       <c r="C223" s="13" t="s">
         <v>21</v>
       </c>
@@ -38427,7 +38427,7 @@
       </c>
     </row>
     <row r="224" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B224" s="33"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="13" t="s">
         <v>21</v>
       </c>
@@ -38583,7 +38583,7 @@
       </c>
     </row>
     <row r="225" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
+      <c r="B225" s="36"/>
       <c r="C225" s="13" t="s">
         <v>21</v>
       </c>
@@ -38739,7 +38739,7 @@
       </c>
     </row>
     <row r="226" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B226" s="33"/>
+      <c r="B226" s="36"/>
       <c r="C226" s="13" t="s">
         <v>21</v>
       </c>
@@ -38895,7 +38895,7 @@
       </c>
     </row>
     <row r="227" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B227" s="33"/>
+      <c r="B227" s="36"/>
       <c r="C227" s="13" t="s">
         <v>21</v>
       </c>
@@ -39051,7 +39051,7 @@
       </c>
     </row>
     <row r="228" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B228" s="33"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="13" t="s">
         <v>21</v>
       </c>
@@ -39207,7 +39207,7 @@
       </c>
     </row>
     <row r="229" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B229" s="33"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="13" t="s">
         <v>21</v>
       </c>
@@ -39367,7 +39367,7 @@
       </c>
     </row>
     <row r="230" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B230" s="33"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="15" t="s">
         <v>22</v>
       </c>
@@ -39526,7 +39526,7 @@
       </c>
     </row>
     <row r="231" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B231" s="33"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="15" t="s">
         <v>22</v>
       </c>
@@ -39682,7 +39682,7 @@
       </c>
     </row>
     <row r="232" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="15" t="s">
         <v>22</v>
       </c>
@@ -39838,7 +39838,7 @@
       </c>
     </row>
     <row r="233" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B233" s="33"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="15" t="s">
         <v>22</v>
       </c>
@@ -39994,7 +39994,7 @@
       </c>
     </row>
     <row r="234" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B234" s="33"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="15" t="s">
         <v>22</v>
       </c>
@@ -40150,7 +40150,7 @@
       </c>
     </row>
     <row r="235" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B235" s="33"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="15" t="s">
         <v>22</v>
       </c>
@@ -40306,7 +40306,7 @@
       </c>
     </row>
     <row r="236" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B236" s="33"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="15" t="s">
         <v>22</v>
       </c>
@@ -40462,7 +40462,7 @@
       </c>
     </row>
     <row r="237" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B237" s="33"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="15" t="s">
         <v>22</v>
       </c>
@@ -40620,7 +40620,7 @@
       <c r="BM237" s="9"/>
     </row>
     <row r="238" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B238" s="33"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="15" t="s">
         <v>22</v>
       </c>
@@ -40778,7 +40778,7 @@
       <c r="BM238" s="9"/>
     </row>
     <row r="239" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="15" t="s">
         <v>22</v>
       </c>
@@ -40940,7 +40940,7 @@
       <c r="BM239" s="9"/>
     </row>
     <row r="240" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B240" s="33"/>
+      <c r="B240" s="36"/>
       <c r="C240" s="13" t="s">
         <v>23</v>
       </c>
@@ -41100,7 +41100,7 @@
       <c r="BM240" s="9"/>
     </row>
     <row r="241" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B241" s="33"/>
+      <c r="B241" s="36"/>
       <c r="C241" s="13" t="s">
         <v>23</v>
       </c>
@@ -41258,7 +41258,7 @@
       <c r="BM241" s="9"/>
     </row>
     <row r="242" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B242" s="33"/>
+      <c r="B242" s="36"/>
       <c r="C242" s="13" t="s">
         <v>23</v>
       </c>
@@ -41416,7 +41416,7 @@
       <c r="BM242" s="9"/>
     </row>
     <row r="243" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B243" s="33"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="13" t="s">
         <v>23</v>
       </c>
@@ -41574,7 +41574,7 @@
       <c r="BM243" s="9"/>
     </row>
     <row r="244" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B244" s="33"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="13" t="s">
         <v>23</v>
       </c>
@@ -41732,7 +41732,7 @@
       <c r="BM244" s="9"/>
     </row>
     <row r="245" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B245" s="33"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="13" t="s">
         <v>23</v>
       </c>
@@ -41890,7 +41890,7 @@
       <c r="BM245" s="9"/>
     </row>
     <row r="246" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
+      <c r="B246" s="36"/>
       <c r="C246" s="13" t="s">
         <v>23</v>
       </c>
@@ -42048,7 +42048,7 @@
       <c r="BM246" s="9"/>
     </row>
     <row r="247" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B247" s="33"/>
+      <c r="B247" s="36"/>
       <c r="C247" s="13" t="s">
         <v>23</v>
       </c>
@@ -42206,7 +42206,7 @@
       <c r="BM247" s="9"/>
     </row>
     <row r="248" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B248" s="33"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="13" t="s">
         <v>23</v>
       </c>
@@ -42364,7 +42364,7 @@
       <c r="BM248" s="9"/>
     </row>
     <row r="249" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B249" s="33"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="13" t="s">
         <v>23</v>
       </c>
@@ -42526,7 +42526,7 @@
       <c r="BM249" s="9"/>
     </row>
     <row r="250" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B250" s="33"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="15" t="s">
         <v>24</v>
       </c>
@@ -42686,7 +42686,7 @@
       <c r="BM250" s="9"/>
     </row>
     <row r="251" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B251" s="33"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="15" t="s">
         <v>24</v>
       </c>
@@ -42844,7 +42844,7 @@
       <c r="BM251" s="9"/>
     </row>
     <row r="252" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B252" s="33"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="15" t="s">
         <v>24</v>
       </c>
@@ -43002,7 +43002,7 @@
       <c r="BM252" s="9"/>
     </row>
     <row r="253" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="15" t="s">
         <v>24</v>
       </c>
@@ -43160,7 +43160,7 @@
       <c r="BM253" s="9"/>
     </row>
     <row r="254" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B254" s="33"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="15" t="s">
         <v>24</v>
       </c>
@@ -43318,7 +43318,7 @@
       <c r="BM254" s="9"/>
     </row>
     <row r="255" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B255" s="33"/>
+      <c r="B255" s="36"/>
       <c r="C255" s="15" t="s">
         <v>24</v>
       </c>
@@ -43476,7 +43476,7 @@
       <c r="BM255" s="9"/>
     </row>
     <row r="256" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B256" s="33"/>
+      <c r="B256" s="36"/>
       <c r="C256" s="15" t="s">
         <v>24</v>
       </c>
@@ -43634,7 +43634,7 @@
       <c r="BM256" s="9"/>
     </row>
     <row r="257" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B257" s="33"/>
+      <c r="B257" s="36"/>
       <c r="C257" s="15" t="s">
         <v>24</v>
       </c>
@@ -43792,7 +43792,7 @@
       <c r="BM257" s="9"/>
     </row>
     <row r="258" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B258" s="33"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="15" t="s">
         <v>24</v>
       </c>
@@ -43950,7 +43950,7 @@
       <c r="BM258" s="9"/>
     </row>
     <row r="259" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B259" s="33"/>
+      <c r="B259" s="36"/>
       <c r="C259" s="15" t="s">
         <v>24</v>
       </c>
@@ -44112,7 +44112,7 @@
       <c r="BM259" s="9"/>
     </row>
     <row r="260" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
+      <c r="B260" s="36"/>
       <c r="C260" s="13" t="s">
         <v>25</v>
       </c>
@@ -44272,7 +44272,7 @@
       <c r="BM260" s="9"/>
     </row>
     <row r="261" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B261" s="33"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="13" t="s">
         <v>25</v>
       </c>
@@ -44430,7 +44430,7 @@
       <c r="BM261" s="9"/>
     </row>
     <row r="262" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B262" s="33"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="13" t="s">
         <v>25</v>
       </c>
@@ -44588,7 +44588,7 @@
       <c r="BM262" s="9"/>
     </row>
     <row r="263" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B263" s="33"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="13" t="s">
         <v>25</v>
       </c>
@@ -44746,7 +44746,7 @@
       <c r="BM263" s="9"/>
     </row>
     <row r="264" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B264" s="33"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="13" t="s">
         <v>25</v>
       </c>
@@ -44904,7 +44904,7 @@
       <c r="BM264" s="9"/>
     </row>
     <row r="265" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B265" s="33"/>
+      <c r="B265" s="36"/>
       <c r="C265" s="13" t="s">
         <v>25</v>
       </c>
@@ -45062,7 +45062,7 @@
       <c r="BM265" s="9"/>
     </row>
     <row r="266" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B266" s="33"/>
+      <c r="B266" s="36"/>
       <c r="C266" s="13" t="s">
         <v>25</v>
       </c>
@@ -45220,7 +45220,7 @@
       <c r="BM266" s="9"/>
     </row>
     <row r="267" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
+      <c r="B267" s="36"/>
       <c r="C267" s="13" t="s">
         <v>25</v>
       </c>
@@ -45378,7 +45378,7 @@
       <c r="BM267" s="9"/>
     </row>
     <row r="268" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B268" s="33"/>
+      <c r="B268" s="36"/>
       <c r="C268" s="13" t="s">
         <v>25</v>
       </c>
@@ -45536,7 +45536,7 @@
       <c r="BM268" s="9"/>
     </row>
     <row r="269" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B269" s="33"/>
+      <c r="B269" s="36"/>
       <c r="C269" s="13" t="s">
         <v>25</v>
       </c>
@@ -45698,7 +45698,7 @@
       <c r="BM269" s="9"/>
     </row>
     <row r="270" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B270" s="33"/>
+      <c r="B270" s="36"/>
       <c r="C270" s="15" t="s">
         <v>26</v>
       </c>
@@ -45858,7 +45858,7 @@
       <c r="BM270" s="9"/>
     </row>
     <row r="271" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B271" s="33"/>
+      <c r="B271" s="36"/>
       <c r="C271" s="15" t="s">
         <v>26</v>
       </c>
@@ -46016,7 +46016,7 @@
       <c r="BM271" s="9"/>
     </row>
     <row r="272" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B272" s="33"/>
+      <c r="B272" s="36"/>
       <c r="C272" s="15" t="s">
         <v>26</v>
       </c>
@@ -46174,7 +46174,7 @@
       <c r="BM272" s="9"/>
     </row>
     <row r="273" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B273" s="33"/>
+      <c r="B273" s="36"/>
       <c r="C273" s="15" t="s">
         <v>26</v>
       </c>
@@ -46332,7 +46332,7 @@
       <c r="BM273" s="9"/>
     </row>
     <row r="274" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="15" t="s">
         <v>26</v>
       </c>
@@ -46490,7 +46490,7 @@
       <c r="BM274" s="9"/>
     </row>
     <row r="275" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B275" s="33"/>
+      <c r="B275" s="36"/>
       <c r="C275" s="15" t="s">
         <v>26</v>
       </c>
@@ -46648,7 +46648,7 @@
       <c r="BM275" s="9"/>
     </row>
     <row r="276" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B276" s="33"/>
+      <c r="B276" s="36"/>
       <c r="C276" s="15" t="s">
         <v>26</v>
       </c>
@@ -46806,7 +46806,7 @@
       <c r="BM276" s="9"/>
     </row>
     <row r="277" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B277" s="33"/>
+      <c r="B277" s="36"/>
       <c r="C277" s="15" t="s">
         <v>26</v>
       </c>
@@ -46964,7 +46964,7 @@
       <c r="BM277" s="9"/>
     </row>
     <row r="278" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B278" s="33"/>
+      <c r="B278" s="36"/>
       <c r="C278" s="15" t="s">
         <v>26</v>
       </c>
@@ -47122,7 +47122,7 @@
       <c r="BM278" s="9"/>
     </row>
     <row r="279" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B279" s="33"/>
+      <c r="B279" s="36"/>
       <c r="C279" s="15" t="s">
         <v>26</v>
       </c>
@@ -47284,7 +47284,7 @@
       <c r="BM279" s="9"/>
     </row>
     <row r="280" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B280" s="33"/>
+      <c r="B280" s="36"/>
       <c r="C280" s="13" t="s">
         <v>27</v>
       </c>
@@ -47444,7 +47444,7 @@
       <c r="BM280" s="9"/>
     </row>
     <row r="281" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B281" s="33"/>
+      <c r="B281" s="36"/>
       <c r="C281" s="13" t="s">
         <v>27</v>
       </c>
@@ -47602,7 +47602,7 @@
       <c r="BM281" s="9"/>
     </row>
     <row r="282" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
+      <c r="B282" s="36"/>
       <c r="C282" s="13" t="s">
         <v>27</v>
       </c>
@@ -47760,7 +47760,7 @@
       <c r="BM282" s="9"/>
     </row>
     <row r="283" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B283" s="33"/>
+      <c r="B283" s="36"/>
       <c r="C283" s="13" t="s">
         <v>27</v>
       </c>
@@ -47918,7 +47918,7 @@
       <c r="BM283" s="9"/>
     </row>
     <row r="284" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B284" s="33"/>
+      <c r="B284" s="36"/>
       <c r="C284" s="13" t="s">
         <v>27</v>
       </c>
@@ -48076,7 +48076,7 @@
       <c r="BM284" s="9"/>
     </row>
     <row r="285" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B285" s="33"/>
+      <c r="B285" s="36"/>
       <c r="C285" s="13" t="s">
         <v>27</v>
       </c>
@@ -48234,7 +48234,7 @@
       <c r="BM285" s="9"/>
     </row>
     <row r="286" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B286" s="33"/>
+      <c r="B286" s="36"/>
       <c r="C286" s="13" t="s">
         <v>27</v>
       </c>
@@ -48392,7 +48392,7 @@
       <c r="BM286" s="9"/>
     </row>
     <row r="287" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
+      <c r="B287" s="36"/>
       <c r="C287" s="13" t="s">
         <v>27</v>
       </c>
@@ -48550,7 +48550,7 @@
       <c r="BM287" s="9"/>
     </row>
     <row r="288" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B288" s="33"/>
+      <c r="B288" s="36"/>
       <c r="C288" s="13" t="s">
         <v>27</v>
       </c>
@@ -48708,7 +48708,7 @@
       <c r="BM288" s="9"/>
     </row>
     <row r="289" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B289" s="34"/>
+      <c r="B289" s="37"/>
       <c r="C289" s="13" t="s">
         <v>27</v>
       </c>
